--- a/netlists/results/results.xlsx
+++ b/netlists/results/results.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="20">
   <si>
     <t>Function</t>
   </si>
@@ -63,6 +63,18 @@
   </si>
   <si>
     <t>alu</t>
+  </si>
+  <si>
+    <t>Matmult</t>
+  </si>
+  <si>
+    <t>2x2</t>
+  </si>
+  <si>
+    <t>3x3</t>
+  </si>
+  <si>
+    <t>5x5</t>
   </si>
 </sst>
 </file>
@@ -198,10 +210,10 @@
     <tabColor rgb="FFFFFFFF"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:U16"/>
+  <dimension ref="A1:U20"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="S25" activeCellId="0" sqref="S25"/>
+      <selection pane="topLeft" activeCell="N18" activeCellId="0" sqref="1:1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -212,7 +224,9 @@
     <col collapsed="false" hidden="false" max="9" min="9" style="1" width="9.1417004048583"/>
     <col collapsed="false" hidden="false" max="13" min="10" style="0" width="8.5748987854251"/>
     <col collapsed="false" hidden="false" max="14" min="14" style="1" width="9.1417004048583"/>
-    <col collapsed="false" hidden="false" max="1025" min="15" style="0" width="8.5748987854251"/>
+    <col collapsed="false" hidden="false" max="20" min="15" style="0" width="8.5748987854251"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="0" width="10.6923076923077"/>
+    <col collapsed="false" hidden="false" max="1025" min="22" style="0" width="8.5748987854251"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -811,6 +825,8 @@
       <c r="F14" s="7"/>
       <c r="H14" s="7"/>
       <c r="I14" s="6"/>
+      <c r="K14" s="7"/>
+      <c r="N14" s="6"/>
       <c r="P14" s="7"/>
       <c r="Q14" s="7"/>
       <c r="R14" s="7"/>
@@ -846,6 +862,8 @@
         <f aca="false">F15+(G15*5)</f>
         <v>1127</v>
       </c>
+      <c r="K15" s="7"/>
+      <c r="N15" s="6"/>
       <c r="P15" s="7" t="n">
         <v>26</v>
       </c>
@@ -893,6 +911,8 @@
         <f aca="false">F16+(G16*5)</f>
         <v>3982</v>
       </c>
+      <c r="K16" s="7"/>
+      <c r="N16" s="6"/>
       <c r="P16" s="7" t="n">
         <v>139</v>
       </c>
@@ -913,6 +933,124 @@
       <c r="U16" s="6" t="n">
         <f aca="false">SUM(P16:Q16)+5*S16</f>
         <v>2469</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K17" s="7"/>
+      <c r="N17" s="6"/>
+      <c r="R17" s="7"/>
+      <c r="T17" s="7"/>
+      <c r="U17" s="6"/>
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K18" s="7"/>
+      <c r="N18" s="6"/>
+      <c r="P18" s="0" t="n">
+        <v>7817</v>
+      </c>
+      <c r="Q18" s="0" t="n">
+        <v>7109</v>
+      </c>
+      <c r="R18" s="7" t="n">
+        <f aca="false">SUM(P18:Q18)</f>
+        <v>14926</v>
+      </c>
+      <c r="S18" s="0" t="n">
+        <v>15223</v>
+      </c>
+      <c r="T18" s="7" t="n">
+        <f aca="false">SUM(P18:R18)</f>
+        <v>29852</v>
+      </c>
+      <c r="U18" s="6" t="n">
+        <f aca="false">SUM(P18:Q18)+5*S18</f>
+        <v>91041</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B19" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K19" s="7" t="n">
+        <f aca="false">M19-L19</f>
+        <v>65592</v>
+      </c>
+      <c r="L19" s="0" t="n">
+        <v>27369</v>
+      </c>
+      <c r="M19" s="0" t="n">
+        <v>92961</v>
+      </c>
+      <c r="N19" s="6" t="n">
+        <f aca="false">K19+(L19*5)</f>
+        <v>202437</v>
+      </c>
+      <c r="P19" s="0" t="n">
+        <v>26574</v>
+      </c>
+      <c r="Q19" s="0" t="n">
+        <v>24213</v>
+      </c>
+      <c r="R19" s="7" t="n">
+        <f aca="false">SUM(P19:Q19)</f>
+        <v>50787</v>
+      </c>
+      <c r="S19" s="0" t="n">
+        <v>51620</v>
+      </c>
+      <c r="T19" s="7" t="n">
+        <f aca="false">SUM(P19:R19)</f>
+        <v>101574</v>
+      </c>
+      <c r="U19" s="6" t="n">
+        <f aca="false">SUM(P19:Q19)+5*S19</f>
+        <v>308887</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B20" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K20" s="7" t="n">
+        <f aca="false">M20-L20</f>
+        <v>306250</v>
+      </c>
+      <c r="L20" s="0" t="n">
+        <v>127225</v>
+      </c>
+      <c r="M20" s="0" t="n">
+        <v>433475</v>
+      </c>
+      <c r="N20" s="6" t="n">
+        <f aca="false">K20+(L20*5)</f>
+        <v>942375</v>
+      </c>
+      <c r="P20" s="0" t="n">
+        <v>123383</v>
+      </c>
+      <c r="Q20" s="0" t="n">
+        <v>112266</v>
+      </c>
+      <c r="R20" s="7" t="n">
+        <f aca="false">SUM(P20:Q20)</f>
+        <v>235649</v>
+      </c>
+      <c r="S20" s="0" t="n">
+        <v>239717</v>
+      </c>
+      <c r="T20" s="7" t="n">
+        <f aca="false">SUM(P20:R20)</f>
+        <v>471298</v>
+      </c>
+      <c r="U20" s="6" t="n">
+        <f aca="false">SUM(P20:Q20)+5*S20</f>
+        <v>1434234</v>
       </c>
     </row>
   </sheetData>

--- a/netlists/results/results.xlsx
+++ b/netlists/results/results.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="21">
   <si>
     <t>Function</t>
   </si>
@@ -23,15 +23,15 @@
     <t>Size</t>
   </si>
   <si>
+    <t>Synopsys</t>
+  </si>
+  <si>
     <t>Yosys-ABC</t>
   </si>
   <si>
     <t>PCF</t>
   </si>
   <si>
-    <t>Synopsys</t>
-  </si>
-  <si>
     <t>XOR</t>
   </si>
   <si>
@@ -75,6 +75,9 @@
   </si>
   <si>
     <t>5x5</t>
+  </si>
+  <si>
+    <t>MatmultSeq</t>
   </si>
 </sst>
 </file>
@@ -159,7 +162,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -173,15 +176,11 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
@@ -210,21 +209,22 @@
     <tabColor rgb="FFFFFFFF"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:U20"/>
+  <dimension ref="A1:AH23"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="N18" activeCellId="0" sqref="1:1048576"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="N25" activeCellId="0" sqref="N25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="10.995951417004"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="12.6032388663968"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="1" width="9.1417004048583"/>
     <col collapsed="false" hidden="false" max="8" min="3" style="0" width="8.5748987854251"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="9.1417004048583"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="10.8259109311741"/>
     <col collapsed="false" hidden="false" max="13" min="10" style="0" width="8.5748987854251"/>
     <col collapsed="false" hidden="false" max="14" min="14" style="1" width="9.1417004048583"/>
-    <col collapsed="false" hidden="false" max="20" min="15" style="0" width="8.5748987854251"/>
+    <col collapsed="false" hidden="false" max="19" min="15" style="0" width="8.5748987854251"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="9.42105263157895"/>
     <col collapsed="false" hidden="false" max="21" min="21" style="0" width="10.6923076923077"/>
     <col collapsed="false" hidden="false" max="1025" min="22" style="0" width="8.5748987854251"/>
   </cols>
@@ -245,37 +245,47 @@
       <c r="G1" s="3"/>
       <c r="H1" s="3"/>
       <c r="I1" s="3"/>
-      <c r="K1" s="3" t="s">
+      <c r="K1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="L1" s="3"/>
-      <c r="M1" s="3"/>
-      <c r="N1" s="3"/>
+      <c r="L1" s="4"/>
+      <c r="M1" s="4"/>
+      <c r="N1" s="4"/>
       <c r="O1" s="4"/>
-      <c r="P1" s="5" t="s">
+      <c r="P1" s="4"/>
+      <c r="R1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="Q1" s="5"/>
-      <c r="R1" s="5"/>
-      <c r="S1" s="5"/>
-      <c r="T1" s="5"/>
-      <c r="U1" s="5"/>
-    </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="S1" s="4"/>
+      <c r="T1" s="4"/>
+      <c r="U1" s="4"/>
+      <c r="W1" s="0"/>
+      <c r="X1" s="0"/>
+      <c r="Y1" s="0"/>
+      <c r="Z1" s="0"/>
+      <c r="AA1" s="0"/>
+      <c r="AB1" s="0"/>
+      <c r="AC1" s="0"/>
+      <c r="AD1" s="0"/>
+      <c r="AE1" s="0"/>
+      <c r="AF1" s="0"/>
+      <c r="AG1" s="0"/>
+      <c r="AH1" s="0"/>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
       <c r="I2" s="0"/>
       <c r="K2" s="2"/>
       <c r="L2" s="2"/>
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
+      <c r="R2" s="2"/>
+      <c r="S2" s="2"/>
+      <c r="T2" s="2"/>
+      <c r="U2" s="2"/>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0"/>
@@ -287,10 +297,10 @@
       <c r="E3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="G3" s="1" t="s">
         <v>8</v>
       </c>
       <c r="H3" s="2" t="s">
@@ -303,25 +313,25 @@
         <v>5</v>
       </c>
       <c r="L3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="O3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="P3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="R3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="S3" s="2" t="s">
         <v>11</v>
-      </c>
-      <c r="M3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="N3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="P3" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="R3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="S3" s="1" t="s">
-        <v>8</v>
       </c>
       <c r="T3" s="2" t="s">
         <v>9</v>
@@ -330,7 +340,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0"/>
       <c r="B4" s="0"/>
       <c r="I4" s="0"/>
@@ -340,499 +350,500 @@
       <c r="A5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="6" t="n">
+      <c r="B5" s="5" t="n">
         <v>160</v>
       </c>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7" t="n">
+      <c r="C5" s="6"/>
+      <c r="D5" s="6" t="n">
+        <v>496</v>
+      </c>
+      <c r="E5" s="6" t="n">
+        <v>332</v>
+      </c>
+      <c r="F5" s="6" t="n">
+        <f aca="false">SUM(D5:E5)</f>
+        <v>828</v>
+      </c>
+      <c r="G5" s="6" t="n">
+        <v>486</v>
+      </c>
+      <c r="H5" s="6" t="n">
+        <f aca="false">SUM(D5:F5)</f>
+        <v>1656</v>
+      </c>
+      <c r="I5" s="5" t="n">
+        <f aca="false">SUM(D5:E5)+5*G5</f>
+        <v>3258</v>
+      </c>
+      <c r="K5" s="6" t="n">
         <v>981</v>
       </c>
-      <c r="E5" s="7" t="n">
+      <c r="L5" s="6" t="n">
         <v>1373</v>
       </c>
-      <c r="F5" s="7" t="n">
-        <f aca="false">D5+E5</f>
+      <c r="M5" s="6" t="n">
+        <f aca="false">K5+L5</f>
         <v>2354</v>
       </c>
-      <c r="G5" s="7" t="n">
+      <c r="N5" s="6" t="n">
         <v>1571</v>
       </c>
-      <c r="H5" s="7" t="n">
-        <f aca="false">D5+E5+G5</f>
+      <c r="O5" s="6" t="n">
+        <f aca="false">K5+L5+N5</f>
         <v>3925</v>
       </c>
-      <c r="I5" s="6" t="n">
-        <f aca="false">F5+(G5*5)</f>
+      <c r="P5" s="5" t="n">
+        <f aca="false">M5+(N5*5)</f>
         <v>10209</v>
       </c>
-      <c r="J5" s="7"/>
-      <c r="K5" s="7" t="n">
-        <f aca="false">M5-L5</f>
+      <c r="Q5" s="6"/>
+      <c r="R5" s="6" t="n">
+        <f aca="false">T5-S5</f>
         <v>3488</v>
       </c>
-      <c r="L5" s="7" t="n">
+      <c r="S5" s="6" t="n">
         <v>880</v>
       </c>
-      <c r="M5" s="7" t="n">
+      <c r="T5" s="6" t="n">
         <v>4368</v>
       </c>
-      <c r="N5" s="6" t="n">
-        <f aca="false">K5+(L5*5)</f>
+      <c r="U5" s="5" t="n">
+        <f aca="false">R5+(S5*5)</f>
         <v>7888</v>
-      </c>
-      <c r="P5" s="7" t="n">
-        <v>496</v>
-      </c>
-      <c r="Q5" s="7" t="n">
-        <v>332</v>
-      </c>
-      <c r="R5" s="7" t="n">
-        <f aca="false">SUM(P5:Q5)</f>
-        <v>828</v>
-      </c>
-      <c r="S5" s="7" t="n">
-        <v>486</v>
-      </c>
-      <c r="T5" s="7" t="n">
-        <f aca="false">SUM(P5:R5)</f>
-        <v>1656</v>
-      </c>
-      <c r="U5" s="6" t="n">
-        <f aca="false">SUM(P5:Q5)+5*S5</f>
-        <v>3258</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0"/>
-      <c r="B6" s="6" t="n">
+      <c r="B6" s="5" t="n">
         <v>1600</v>
       </c>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7" t="n">
+      <c r="C6" s="6"/>
+      <c r="D6" s="6" t="n">
+        <v>4825</v>
+      </c>
+      <c r="E6" s="6" t="n">
+        <v>3126</v>
+      </c>
+      <c r="F6" s="6" t="n">
+        <f aca="false">SUM(D6:E6)</f>
+        <v>7951</v>
+      </c>
+      <c r="G6" s="6" t="n">
+        <v>4810</v>
+      </c>
+      <c r="H6" s="6" t="n">
+        <f aca="false">SUM(D6:F6)</f>
+        <v>15902</v>
+      </c>
+      <c r="I6" s="5" t="n">
+        <f aca="false">SUM(D6:E6)+5*G6</f>
+        <v>32001</v>
+      </c>
+      <c r="K6" s="6" t="n">
         <v>15378</v>
       </c>
-      <c r="E6" s="7" t="n">
+      <c r="L6" s="6" t="n">
         <v>23243</v>
       </c>
-      <c r="F6" s="7" t="n">
-        <f aca="false">D6+E6</f>
+      <c r="M6" s="6" t="n">
+        <f aca="false">K6+L6</f>
         <v>38621</v>
       </c>
-      <c r="G6" s="7" t="n">
+      <c r="N6" s="6" t="n">
         <v>22384</v>
       </c>
-      <c r="H6" s="7" t="n">
-        <f aca="false">D6+E6+G6</f>
+      <c r="O6" s="6" t="n">
+        <f aca="false">K6+L6+N6</f>
         <v>61005</v>
       </c>
-      <c r="I6" s="6" t="n">
-        <f aca="false">F6+(G6*5)</f>
+      <c r="P6" s="5" t="n">
+        <f aca="false">M6+(N6*5)</f>
         <v>150541</v>
       </c>
-      <c r="J6" s="7"/>
-      <c r="K6" s="7" t="n">
-        <f aca="false">M6-L6</f>
+      <c r="Q6" s="6"/>
+      <c r="R6" s="6" t="n">
+        <f aca="false">T6-S6</f>
         <v>26537</v>
       </c>
-      <c r="L6" s="7" t="n">
+      <c r="S6" s="6" t="n">
         <v>6375</v>
       </c>
-      <c r="M6" s="7" t="n">
+      <c r="T6" s="6" t="n">
         <v>32912</v>
       </c>
-      <c r="N6" s="6" t="n">
-        <f aca="false">K6+(L6*5)</f>
+      <c r="U6" s="5" t="n">
+        <f aca="false">R6+(S6*5)</f>
         <v>58412</v>
-      </c>
-      <c r="P6" s="7" t="n">
-        <v>4825</v>
-      </c>
-      <c r="Q6" s="7" t="n">
-        <v>3126</v>
-      </c>
-      <c r="R6" s="7" t="n">
-        <f aca="false">SUM(P6:Q6)</f>
-        <v>7951</v>
-      </c>
-      <c r="S6" s="7" t="n">
-        <v>4810</v>
-      </c>
-      <c r="T6" s="7" t="n">
-        <f aca="false">SUM(P6:R6)</f>
-        <v>15902</v>
-      </c>
-      <c r="U6" s="6" t="n">
-        <f aca="false">SUM(P6:Q6)+5*S6</f>
-        <v>32001</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0"/>
-      <c r="B7" s="6"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
-      <c r="I7" s="6"/>
-      <c r="J7" s="7"/>
-      <c r="K7" s="7"/>
-      <c r="L7" s="7"/>
-      <c r="M7" s="7"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="5"/>
+      <c r="K7" s="6"/>
+      <c r="L7" s="6"/>
+      <c r="M7" s="6"/>
       <c r="N7" s="6"/>
-      <c r="P7" s="7"/>
-      <c r="Q7" s="7"/>
-      <c r="R7" s="7"/>
-      <c r="S7" s="7"/>
-      <c r="T7" s="7"/>
-      <c r="U7" s="6"/>
+      <c r="O7" s="6"/>
+      <c r="P7" s="5"/>
+      <c r="Q7" s="6"/>
+      <c r="R7" s="6"/>
+      <c r="S7" s="6"/>
+      <c r="T7" s="6"/>
+      <c r="U7" s="5"/>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="6" t="n">
+      <c r="B8" s="5" t="n">
         <v>128</v>
       </c>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7" t="n">
+      <c r="C8" s="6"/>
+      <c r="D8" s="6" t="n">
+        <v>370</v>
+      </c>
+      <c r="E8" s="6" t="n">
+        <v>486</v>
+      </c>
+      <c r="F8" s="6" t="n">
+        <f aca="false">SUM(D8:E8)</f>
+        <v>856</v>
+      </c>
+      <c r="G8" s="6" t="n">
+        <v>384</v>
+      </c>
+      <c r="H8" s="6" t="n">
+        <f aca="false">SUM(D8:F8)</f>
+        <v>1712</v>
+      </c>
+      <c r="I8" s="5" t="n">
+        <f aca="false">SUM(D8:E8)+5*G8</f>
+        <v>2776</v>
+      </c>
+      <c r="K8" s="6" t="n">
         <v>255</v>
       </c>
-      <c r="E8" s="7" t="n">
+      <c r="L8" s="6" t="n">
         <v>258</v>
       </c>
-      <c r="F8" s="7" t="n">
-        <f aca="false">D8+E8</f>
+      <c r="M8" s="6" t="n">
+        <f aca="false">K8+L8</f>
         <v>513</v>
       </c>
-      <c r="G8" s="7" t="n">
+      <c r="N8" s="6" t="n">
         <v>382</v>
       </c>
-      <c r="H8" s="7" t="n">
-        <f aca="false">D8+E8+G8</f>
+      <c r="O8" s="6" t="n">
+        <f aca="false">K8+L8+N8</f>
         <v>895</v>
       </c>
-      <c r="I8" s="6" t="n">
-        <f aca="false">F8+(G8*5)</f>
+      <c r="P8" s="5" t="n">
+        <f aca="false">M8+(N8*5)</f>
         <v>2423</v>
       </c>
-      <c r="J8" s="7"/>
-      <c r="K8" s="7" t="n">
-        <f aca="false">M8-L8</f>
+      <c r="Q8" s="6"/>
+      <c r="R8" s="6" t="n">
+        <f aca="false">T8-S8</f>
         <v>1098</v>
       </c>
-      <c r="L8" s="7" t="n">
+      <c r="S8" s="6" t="n">
         <v>345</v>
       </c>
-      <c r="M8" s="7" t="n">
+      <c r="T8" s="6" t="n">
         <v>1443</v>
       </c>
-      <c r="N8" s="6" t="n">
-        <f aca="false">K8+(L8*5)</f>
+      <c r="U8" s="5" t="n">
+        <f aca="false">R8+(S8*5)</f>
         <v>2823</v>
-      </c>
-      <c r="P8" s="7" t="n">
-        <v>370</v>
-      </c>
-      <c r="Q8" s="7" t="n">
-        <v>486</v>
-      </c>
-      <c r="R8" s="7" t="n">
-        <f aca="false">SUM(P8:Q8)</f>
-        <v>856</v>
-      </c>
-      <c r="S8" s="7" t="n">
-        <v>384</v>
-      </c>
-      <c r="T8" s="7" t="n">
-        <f aca="false">SUM(P8:R8)</f>
-        <v>1712</v>
-      </c>
-      <c r="U8" s="6" t="n">
-        <f aca="false">SUM(P8:Q8)+5*S8</f>
-        <v>2776</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0"/>
-      <c r="B9" s="6" t="n">
+      <c r="B9" s="5" t="n">
         <v>256</v>
       </c>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7" t="n">
+      <c r="C9" s="6"/>
+      <c r="D9" s="6" t="n">
+        <v>756</v>
+      </c>
+      <c r="E9" s="6" t="n">
+        <v>1002</v>
+      </c>
+      <c r="F9" s="6" t="n">
+        <f aca="false">SUM(D9:E9)</f>
+        <v>1758</v>
+      </c>
+      <c r="G9" s="6" t="n">
+        <v>768</v>
+      </c>
+      <c r="H9" s="6" t="n">
+        <f aca="false">SUM(D9:F9)</f>
+        <v>3516</v>
+      </c>
+      <c r="I9" s="5" t="n">
+        <f aca="false">SUM(D9:E9)+5*G9</f>
+        <v>5598</v>
+      </c>
+      <c r="K9" s="6" t="n">
         <v>511</v>
       </c>
-      <c r="E9" s="7" t="n">
+      <c r="L9" s="6" t="n">
         <v>514</v>
       </c>
-      <c r="F9" s="7" t="n">
-        <f aca="false">D9+E9</f>
+      <c r="M9" s="6" t="n">
+        <f aca="false">K9+L9</f>
         <v>1025</v>
       </c>
-      <c r="G9" s="7" t="n">
+      <c r="N9" s="6" t="n">
         <v>766</v>
       </c>
-      <c r="H9" s="7" t="n">
-        <f aca="false">D9+E9+G9</f>
+      <c r="O9" s="6" t="n">
+        <f aca="false">K9+L9+N9</f>
         <v>1791</v>
       </c>
-      <c r="I9" s="6" t="n">
-        <f aca="false">F9+(G9*5)</f>
+      <c r="P9" s="5" t="n">
+        <f aca="false">M9+(N9*5)</f>
         <v>4855</v>
       </c>
-      <c r="J9" s="7"/>
-      <c r="K9" s="7" t="n">
-        <f aca="false">M9-L9</f>
+      <c r="Q9" s="6"/>
+      <c r="R9" s="6" t="n">
+        <f aca="false">T9-S9</f>
         <v>2230</v>
       </c>
-      <c r="L9" s="7" t="n">
+      <c r="S9" s="6" t="n">
         <v>721</v>
       </c>
-      <c r="M9" s="7" t="n">
+      <c r="T9" s="6" t="n">
         <v>2951</v>
       </c>
-      <c r="N9" s="6" t="n">
-        <f aca="false">K9+(L9*5)</f>
+      <c r="U9" s="5" t="n">
+        <f aca="false">R9+(S9*5)</f>
         <v>5835</v>
-      </c>
-      <c r="P9" s="7" t="n">
-        <v>756</v>
-      </c>
-      <c r="Q9" s="7" t="n">
-        <v>1002</v>
-      </c>
-      <c r="R9" s="7" t="n">
-        <f aca="false">SUM(P9:Q9)</f>
-        <v>1758</v>
-      </c>
-      <c r="S9" s="7" t="n">
-        <v>768</v>
-      </c>
-      <c r="T9" s="7" t="n">
-        <f aca="false">SUM(P9:R9)</f>
-        <v>3516</v>
-      </c>
-      <c r="U9" s="6" t="n">
-        <f aca="false">SUM(P9:Q9)+5*S9</f>
-        <v>5598</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0"/>
-      <c r="B10" s="6" t="n">
+      <c r="B10" s="5" t="n">
         <v>1024</v>
       </c>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7" t="n">
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="5"/>
+      <c r="K10" s="6" t="n">
         <v>2047</v>
       </c>
-      <c r="E10" s="7" t="n">
+      <c r="L10" s="6" t="n">
         <v>2050</v>
       </c>
-      <c r="F10" s="7" t="n">
-        <f aca="false">D10+E10</f>
+      <c r="M10" s="6" t="n">
+        <f aca="false">K10+L10</f>
         <v>4097</v>
       </c>
-      <c r="G10" s="7" t="n">
+      <c r="N10" s="6" t="n">
         <v>3070</v>
       </c>
-      <c r="H10" s="7" t="n">
-        <f aca="false">D10+E10+G10</f>
+      <c r="O10" s="6" t="n">
+        <f aca="false">K10+L10+N10</f>
         <v>7167</v>
       </c>
-      <c r="I10" s="6" t="n">
-        <f aca="false">F10+(G10*5)</f>
+      <c r="P10" s="5" t="n">
+        <f aca="false">M10+(N10*5)</f>
         <v>19447</v>
       </c>
-      <c r="J10" s="7"/>
-      <c r="K10" s="7" t="n">
-        <f aca="false">M10-L10</f>
+      <c r="Q10" s="6"/>
+      <c r="R10" s="6" t="n">
+        <f aca="false">T10-S10</f>
         <v>9022</v>
       </c>
-      <c r="L10" s="7" t="n">
+      <c r="S10" s="6" t="n">
         <v>2977</v>
       </c>
-      <c r="M10" s="7" t="n">
+      <c r="T10" s="6" t="n">
         <v>11999</v>
       </c>
-      <c r="N10" s="6" t="n">
-        <f aca="false">K10+(L10*5)</f>
+      <c r="U10" s="5" t="n">
+        <f aca="false">R10+(S10*5)</f>
         <v>23907</v>
       </c>
-      <c r="P10" s="7"/>
-      <c r="Q10" s="7"/>
-      <c r="R10" s="7"/>
-      <c r="S10" s="7"/>
-      <c r="T10" s="7"/>
-      <c r="U10" s="6"/>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0"/>
-      <c r="B11" s="6"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="7"/>
-      <c r="I11" s="6"/>
-      <c r="J11" s="7"/>
-      <c r="K11" s="7"/>
-      <c r="L11" s="7"/>
-      <c r="M11" s="7"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="5"/>
+      <c r="K11" s="6"/>
+      <c r="L11" s="6"/>
+      <c r="M11" s="6"/>
       <c r="N11" s="6"/>
-      <c r="P11" s="7"/>
-      <c r="Q11" s="7"/>
-      <c r="R11" s="7"/>
-      <c r="S11" s="7"/>
-      <c r="T11" s="7"/>
-      <c r="U11" s="6"/>
+      <c r="O11" s="6"/>
+      <c r="P11" s="5"/>
+      <c r="Q11" s="6"/>
+      <c r="R11" s="6"/>
+      <c r="S11" s="6"/>
+      <c r="T11" s="6"/>
+      <c r="U11" s="5"/>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="6" t="n">
+      <c r="B12" s="5" t="n">
         <v>64</v>
       </c>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7" t="n">
+      <c r="C12" s="6"/>
+      <c r="D12" s="6" t="n">
+        <v>8028</v>
+      </c>
+      <c r="E12" s="6" t="n">
+        <v>7337</v>
+      </c>
+      <c r="F12" s="6" t="n">
+        <f aca="false">SUM(D12:E12)</f>
+        <v>15365</v>
+      </c>
+      <c r="G12" s="6" t="n">
+        <v>16593</v>
+      </c>
+      <c r="H12" s="6" t="n">
+        <f aca="false">SUM(D12:F12)</f>
+        <v>30730</v>
+      </c>
+      <c r="I12" s="5" t="n">
+        <f aca="false">SUM(D12:E12)+5*G12</f>
+        <v>98330</v>
+      </c>
+      <c r="K12" s="6" t="n">
         <v>15503</v>
       </c>
-      <c r="E12" s="7" t="n">
+      <c r="L12" s="6" t="n">
         <v>4348</v>
       </c>
-      <c r="F12" s="7" t="n">
-        <f aca="false">D12+E12</f>
+      <c r="M12" s="6" t="n">
+        <f aca="false">K12+L12</f>
         <v>19851</v>
       </c>
-      <c r="G12" s="7" t="n">
+      <c r="N12" s="6" t="n">
         <v>16064</v>
       </c>
-      <c r="H12" s="7" t="n">
-        <f aca="false">D12+E12+G12</f>
+      <c r="O12" s="6" t="n">
+        <f aca="false">K12+L12+N12</f>
         <v>35915</v>
       </c>
-      <c r="I12" s="6" t="n">
-        <f aca="false">F12+(G12*5)</f>
+      <c r="P12" s="5" t="n">
+        <f aca="false">M12+(N12*5)</f>
         <v>100171</v>
       </c>
-      <c r="J12" s="7"/>
-      <c r="K12" s="7" t="n">
-        <f aca="false">M12-L12</f>
+      <c r="Q12" s="6"/>
+      <c r="R12" s="6" t="n">
+        <f aca="false">T12-S12</f>
         <v>81114</v>
       </c>
-      <c r="L12" s="7" t="n">
+      <c r="S12" s="6" t="n">
         <v>24766</v>
       </c>
-      <c r="M12" s="7" t="n">
+      <c r="T12" s="6" t="n">
         <v>105880</v>
       </c>
-      <c r="N12" s="6" t="n">
-        <f aca="false">K12+(L12*5)</f>
+      <c r="U12" s="5" t="n">
+        <f aca="false">R12+(S12*5)</f>
         <v>204944</v>
-      </c>
-      <c r="P12" s="7" t="n">
-        <v>8028</v>
-      </c>
-      <c r="Q12" s="7" t="n">
-        <v>7337</v>
-      </c>
-      <c r="R12" s="7" t="n">
-        <f aca="false">SUM(P12:Q12)</f>
-        <v>15365</v>
-      </c>
-      <c r="S12" s="7" t="n">
-        <v>16593</v>
-      </c>
-      <c r="T12" s="7" t="n">
-        <f aca="false">SUM(P12:R12)</f>
-        <v>30730</v>
-      </c>
-      <c r="U12" s="6" t="n">
-        <f aca="false">SUM(P12:Q12)+5*S12</f>
-        <v>98330</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0"/>
-      <c r="B13" s="6" t="n">
+      <c r="B13" s="5" t="n">
         <v>128</v>
       </c>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7" t="n">
+      <c r="C13" s="6"/>
+      <c r="D13" s="6" t="n">
+        <v>32489</v>
+      </c>
+      <c r="E13" s="6" t="n">
+        <v>27891</v>
+      </c>
+      <c r="F13" s="6" t="n">
+        <f aca="false">SUM(D13:E13)</f>
+        <v>60380</v>
+      </c>
+      <c r="G13" s="6" t="n">
+        <v>66070</v>
+      </c>
+      <c r="H13" s="6" t="n">
+        <f aca="false">SUM(D13:F13)</f>
+        <v>120760</v>
+      </c>
+      <c r="I13" s="5" t="n">
+        <f aca="false">SUM(D13:E13)+5*G13</f>
+        <v>390730</v>
+      </c>
+      <c r="K13" s="6" t="n">
         <v>63759</v>
       </c>
-      <c r="E13" s="7" t="n">
+      <c r="L13" s="6" t="n">
         <v>16892</v>
       </c>
-      <c r="F13" s="7" t="n">
-        <f aca="false">D13+E13</f>
+      <c r="M13" s="6" t="n">
+        <f aca="false">K13+L13</f>
         <v>80651</v>
       </c>
-      <c r="G13" s="7" t="n">
+      <c r="N13" s="6" t="n">
         <v>64896</v>
       </c>
-      <c r="H13" s="7" t="n">
-        <f aca="false">D13+E13+G13</f>
+      <c r="O13" s="6" t="n">
+        <f aca="false">K13+L13+N13</f>
         <v>145547</v>
       </c>
-      <c r="I13" s="6" t="n">
-        <f aca="false">F13+(G13*5)</f>
+      <c r="P13" s="5" t="n">
+        <f aca="false">M13+(N13*5)</f>
         <v>405131</v>
       </c>
-      <c r="J13" s="7"/>
-      <c r="K13" s="7" t="n">
-        <f aca="false">M13-L13</f>
+      <c r="Q13" s="6"/>
+      <c r="R13" s="6" t="n">
+        <f aca="false">T13-S13</f>
         <v>322814</v>
       </c>
-      <c r="L13" s="7" t="n">
+      <c r="S13" s="6" t="n">
         <v>100250</v>
       </c>
-      <c r="M13" s="7" t="n">
+      <c r="T13" s="6" t="n">
         <v>423064</v>
       </c>
-      <c r="N13" s="6" t="n">
-        <f aca="false">K13+(L13*5)</f>
+      <c r="U13" s="5" t="n">
+        <f aca="false">R13+(S13*5)</f>
         <v>824064</v>
-      </c>
-      <c r="P13" s="7" t="n">
-        <v>32489</v>
-      </c>
-      <c r="Q13" s="7" t="n">
-        <v>27891</v>
-      </c>
-      <c r="R13" s="7" t="n">
-        <f aca="false">SUM(P13:Q13)</f>
-        <v>60380</v>
-      </c>
-      <c r="S13" s="7" t="n">
-        <v>66070</v>
-      </c>
-      <c r="T13" s="7" t="n">
-        <f aca="false">SUM(P13:R13)</f>
-        <v>120760</v>
-      </c>
-      <c r="U13" s="6" t="n">
-        <f aca="false">SUM(P13:Q13)+5*S13</f>
-        <v>390730</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0"/>
       <c r="B14" s="0"/>
-      <c r="F14" s="7"/>
-      <c r="H14" s="7"/>
-      <c r="I14" s="6"/>
-      <c r="K14" s="7"/>
-      <c r="N14" s="6"/>
-      <c r="P14" s="7"/>
-      <c r="Q14" s="7"/>
-      <c r="R14" s="7"/>
-      <c r="S14" s="7"/>
-      <c r="T14" s="7"/>
-      <c r="U14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="5"/>
+      <c r="M14" s="6"/>
+      <c r="N14" s="0"/>
+      <c r="O14" s="6"/>
+      <c r="P14" s="5"/>
+      <c r="R14" s="6"/>
+      <c r="U14" s="5"/>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
@@ -841,106 +852,111 @@
       <c r="B15" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="D15" s="0" t="n">
+      <c r="D15" s="6" t="n">
+        <v>26</v>
+      </c>
+      <c r="E15" s="6" t="n">
+        <v>81</v>
+      </c>
+      <c r="F15" s="6" t="n">
+        <f aca="false">SUM(D15:E15)</f>
+        <v>107</v>
+      </c>
+      <c r="G15" s="6" t="n">
+        <v>163</v>
+      </c>
+      <c r="H15" s="6" t="n">
+        <f aca="false">SUM(D15:F15)</f>
+        <v>214</v>
+      </c>
+      <c r="I15" s="5" t="n">
+        <f aca="false">SUM(D15:E15)+5*G15</f>
+        <v>922</v>
+      </c>
+      <c r="K15" s="0" t="n">
         <v>41</v>
       </c>
-      <c r="E15" s="0" t="n">
+      <c r="L15" s="0" t="n">
         <v>111</v>
       </c>
-      <c r="F15" s="7" t="n">
-        <f aca="false">D15+E15</f>
+      <c r="M15" s="6" t="n">
+        <f aca="false">K15+L15</f>
         <v>152</v>
       </c>
-      <c r="G15" s="0" t="n">
+      <c r="N15" s="0" t="n">
         <v>195</v>
       </c>
-      <c r="H15" s="7" t="n">
-        <f aca="false">D15+E15+G15</f>
+      <c r="O15" s="6" t="n">
+        <f aca="false">K15+L15+N15</f>
         <v>347</v>
       </c>
-      <c r="I15" s="6" t="n">
-        <f aca="false">F15+(G15*5)</f>
+      <c r="P15" s="5" t="n">
+        <f aca="false">M15+(N15*5)</f>
         <v>1127</v>
       </c>
-      <c r="K15" s="7"/>
-      <c r="N15" s="6"/>
-      <c r="P15" s="7" t="n">
-        <v>26</v>
-      </c>
-      <c r="Q15" s="7" t="n">
-        <v>81</v>
-      </c>
-      <c r="R15" s="7" t="n">
-        <f aca="false">SUM(P15:Q15)</f>
-        <v>107</v>
-      </c>
-      <c r="S15" s="7" t="n">
-        <v>163</v>
-      </c>
-      <c r="T15" s="7" t="n">
-        <f aca="false">SUM(P15:R15)</f>
-        <v>214</v>
-      </c>
-      <c r="U15" s="6" t="n">
-        <f aca="false">SUM(P15:Q15)+5*S15</f>
-        <v>922</v>
-      </c>
+      <c r="R15" s="6"/>
+      <c r="U15" s="5"/>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0"/>
       <c r="B16" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="D16" s="0" t="n">
+      <c r="D16" s="6" t="n">
+        <v>139</v>
+      </c>
+      <c r="E16" s="6" t="n">
+        <v>220</v>
+      </c>
+      <c r="F16" s="6" t="n">
+        <f aca="false">SUM(D16:E16)</f>
+        <v>359</v>
+      </c>
+      <c r="G16" s="6" t="n">
+        <v>422</v>
+      </c>
+      <c r="H16" s="6" t="n">
+        <f aca="false">SUM(D16:F16)</f>
+        <v>718</v>
+      </c>
+      <c r="I16" s="5" t="n">
+        <f aca="false">SUM(D16:E16)+5*G16</f>
+        <v>2469</v>
+      </c>
+      <c r="K16" s="0" t="n">
         <v>211</v>
       </c>
-      <c r="E16" s="0" t="n">
+      <c r="L16" s="0" t="n">
         <v>346</v>
       </c>
-      <c r="F16" s="7" t="n">
-        <f aca="false">D16+E16</f>
+      <c r="M16" s="6" t="n">
+        <f aca="false">K16+L16</f>
         <v>557</v>
       </c>
-      <c r="G16" s="0" t="n">
+      <c r="N16" s="0" t="n">
         <v>685</v>
       </c>
-      <c r="H16" s="7" t="n">
-        <f aca="false">D16+E16+G16</f>
+      <c r="O16" s="6" t="n">
+        <f aca="false">K16+L16+N16</f>
         <v>1242</v>
       </c>
-      <c r="I16" s="6" t="n">
-        <f aca="false">F16+(G16*5)</f>
+      <c r="P16" s="5" t="n">
+        <f aca="false">M16+(N16*5)</f>
         <v>3982</v>
       </c>
-      <c r="K16" s="7"/>
-      <c r="N16" s="6"/>
-      <c r="P16" s="7" t="n">
-        <v>139</v>
-      </c>
-      <c r="Q16" s="7" t="n">
-        <v>220</v>
-      </c>
-      <c r="R16" s="7" t="n">
-        <f aca="false">SUM(P16:Q16)</f>
-        <v>359</v>
-      </c>
-      <c r="S16" s="7" t="n">
-        <v>422</v>
-      </c>
-      <c r="T16" s="7" t="n">
-        <f aca="false">SUM(P16:R16)</f>
-        <v>718</v>
-      </c>
-      <c r="U16" s="6" t="n">
-        <f aca="false">SUM(P16:Q16)+5*S16</f>
-        <v>2469</v>
-      </c>
+      <c r="R16" s="6"/>
+      <c r="U16" s="5"/>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="K17" s="7"/>
-      <c r="N17" s="6"/>
-      <c r="R17" s="7"/>
-      <c r="T17" s="7"/>
-      <c r="U17" s="6"/>
+      <c r="A17" s="0"/>
+      <c r="B17" s="0"/>
+      <c r="F17" s="6"/>
+      <c r="H17" s="6"/>
+      <c r="I17" s="5"/>
+      <c r="N17" s="0"/>
+      <c r="P17" s="1"/>
+      <c r="R17" s="6"/>
+      <c r="U17" s="5"/>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
@@ -949,115 +965,145 @@
       <c r="B18" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="K18" s="7"/>
-      <c r="N18" s="6"/>
-      <c r="P18" s="0" t="n">
+      <c r="D18" s="0" t="n">
         <v>7817</v>
       </c>
-      <c r="Q18" s="0" t="n">
+      <c r="E18" s="0" t="n">
         <v>7109</v>
       </c>
-      <c r="R18" s="7" t="n">
-        <f aca="false">SUM(P18:Q18)</f>
+      <c r="F18" s="6" t="n">
+        <f aca="false">SUM(D18:E18)</f>
         <v>14926</v>
       </c>
-      <c r="S18" s="0" t="n">
+      <c r="G18" s="0" t="n">
         <v>15223</v>
       </c>
-      <c r="T18" s="7" t="n">
-        <f aca="false">SUM(P18:R18)</f>
+      <c r="H18" s="6" t="n">
+        <f aca="false">SUM(D18:F18)</f>
         <v>29852</v>
       </c>
-      <c r="U18" s="6" t="n">
-        <f aca="false">SUM(P18:Q18)+5*S18</f>
+      <c r="I18" s="5" t="n">
+        <f aca="false">SUM(D18:E18)+5*G18</f>
         <v>91041</v>
       </c>
+      <c r="N18" s="0"/>
+      <c r="P18" s="1"/>
+      <c r="R18" s="6"/>
+      <c r="U18" s="5"/>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B19" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="K19" s="7" t="n">
-        <f aca="false">M19-L19</f>
+      <c r="D19" s="0" t="n">
+        <v>26574</v>
+      </c>
+      <c r="E19" s="0" t="n">
+        <v>24213</v>
+      </c>
+      <c r="F19" s="6" t="n">
+        <f aca="false">SUM(D19:E19)</f>
+        <v>50787</v>
+      </c>
+      <c r="G19" s="0" t="n">
+        <v>51620</v>
+      </c>
+      <c r="H19" s="6" t="n">
+        <f aca="false">SUM(D19:F19)</f>
+        <v>101574</v>
+      </c>
+      <c r="I19" s="5" t="n">
+        <f aca="false">SUM(D19:E19)+5*G19</f>
+        <v>308887</v>
+      </c>
+      <c r="N19" s="0"/>
+      <c r="P19" s="1"/>
+      <c r="R19" s="6" t="n">
+        <f aca="false">T19-S19</f>
         <v>65592</v>
       </c>
-      <c r="L19" s="0" t="n">
+      <c r="S19" s="0" t="n">
         <v>27369</v>
       </c>
-      <c r="M19" s="0" t="n">
+      <c r="T19" s="0" t="n">
         <v>92961</v>
       </c>
-      <c r="N19" s="6" t="n">
-        <f aca="false">K19+(L19*5)</f>
+      <c r="U19" s="5" t="n">
+        <f aca="false">R19+(S19*5)</f>
         <v>202437</v>
-      </c>
-      <c r="P19" s="0" t="n">
-        <v>26574</v>
-      </c>
-      <c r="Q19" s="0" t="n">
-        <v>24213</v>
-      </c>
-      <c r="R19" s="7" t="n">
-        <f aca="false">SUM(P19:Q19)</f>
-        <v>50787</v>
-      </c>
-      <c r="S19" s="0" t="n">
-        <v>51620</v>
-      </c>
-      <c r="T19" s="7" t="n">
-        <f aca="false">SUM(P19:R19)</f>
-        <v>101574</v>
-      </c>
-      <c r="U19" s="6" t="n">
-        <f aca="false">SUM(P19:Q19)+5*S19</f>
-        <v>308887</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B20" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="K20" s="7" t="n">
-        <f aca="false">M20-L20</f>
+      <c r="D20" s="0" t="n">
+        <v>123383</v>
+      </c>
+      <c r="E20" s="0" t="n">
+        <v>112266</v>
+      </c>
+      <c r="F20" s="6" t="n">
+        <f aca="false">SUM(D20:E20)</f>
+        <v>235649</v>
+      </c>
+      <c r="G20" s="0" t="n">
+        <v>239717</v>
+      </c>
+      <c r="H20" s="6" t="n">
+        <f aca="false">SUM(D20:F20)</f>
+        <v>471298</v>
+      </c>
+      <c r="I20" s="5" t="n">
+        <f aca="false">SUM(D20:E20)+5*G20</f>
+        <v>1434234</v>
+      </c>
+      <c r="N20" s="0"/>
+      <c r="P20" s="1"/>
+      <c r="R20" s="6" t="n">
+        <f aca="false">T20-S20</f>
         <v>306250</v>
       </c>
-      <c r="L20" s="0" t="n">
+      <c r="S20" s="0" t="n">
         <v>127225</v>
       </c>
-      <c r="M20" s="0" t="n">
+      <c r="T20" s="0" t="n">
         <v>433475</v>
       </c>
-      <c r="N20" s="6" t="n">
-        <f aca="false">K20+(L20*5)</f>
+      <c r="U20" s="5" t="n">
+        <f aca="false">R20+(S20*5)</f>
         <v>942375</v>
       </c>
-      <c r="P20" s="0" t="n">
-        <v>123383</v>
-      </c>
-      <c r="Q20" s="0" t="n">
-        <v>112266</v>
-      </c>
-      <c r="R20" s="7" t="n">
-        <f aca="false">SUM(P20:Q20)</f>
-        <v>235649</v>
-      </c>
-      <c r="S20" s="0" t="n">
-        <v>239717</v>
-      </c>
-      <c r="T20" s="7" t="n">
-        <f aca="false">SUM(P20:R20)</f>
-        <v>471298</v>
-      </c>
-      <c r="U20" s="6" t="n">
-        <f aca="false">SUM(P20:Q20)+5*S20</f>
-        <v>1434234</v>
-      </c>
+    </row>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I21" s="0"/>
+      <c r="N21" s="0"/>
+      <c r="P21" s="1"/>
+      <c r="U21" s="1"/>
+    </row>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I22" s="0"/>
+      <c r="N22" s="0"/>
+      <c r="P22" s="1"/>
+      <c r="U22" s="1"/>
+    </row>
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I23" s="0"/>
+      <c r="N23" s="0"/>
+      <c r="P23" s="1"/>
+      <c r="U23" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="D1:I1"/>
-    <mergeCell ref="K1:N1"/>
-    <mergeCell ref="P1:U1"/>
+    <mergeCell ref="K1:P1"/>
+    <mergeCell ref="R1:U1"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>

--- a/netlists/results/results.xlsx
+++ b/netlists/results/results.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="24">
   <si>
     <t>Function</t>
   </si>
@@ -42,6 +42,15 @@
   </si>
   <si>
     <t>NOR</t>
+  </si>
+  <si>
+    <t>Area</t>
+  </si>
+  <si>
+    <t>CC</t>
+  </si>
+  <si>
+    <t>Time</t>
   </si>
   <si>
     <t>Total</t>
@@ -211,17 +220,18 @@
   </sheetPr>
   <dimension ref="A1:AH23"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="N25" activeCellId="0" sqref="N25"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="K23" activeCellId="0" sqref="K23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="1" width="12.6032388663968"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="1" width="9.1417004048583"/>
     <col collapsed="false" hidden="false" max="8" min="3" style="0" width="8.5748987854251"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="10.8259109311741"/>
-    <col collapsed="false" hidden="false" max="13" min="10" style="0" width="8.5748987854251"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="10.8259109311741"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="10.8259109311741"/>
+    <col collapsed="false" hidden="false" max="13" min="11" style="0" width="8.5748987854251"/>
     <col collapsed="false" hidden="false" max="14" min="14" style="1" width="9.1417004048583"/>
     <col collapsed="false" hidden="false" max="19" min="15" style="0" width="8.5748987854251"/>
     <col collapsed="false" hidden="false" max="20" min="20" style="0" width="9.42105263157895"/>
@@ -245,20 +255,22 @@
       <c r="G1" s="3"/>
       <c r="H1" s="3"/>
       <c r="I1" s="3"/>
-      <c r="K1" s="4" t="s">
+      <c r="J1" s="3"/>
+      <c r="K1" s="0"/>
+      <c r="L1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="L1" s="4"/>
       <c r="M1" s="4"/>
       <c r="N1" s="4"/>
       <c r="O1" s="4"/>
       <c r="P1" s="4"/>
-      <c r="R1" s="4" t="s">
+      <c r="Q1" s="4"/>
+      <c r="S1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="S1" s="4"/>
       <c r="T1" s="4"/>
       <c r="U1" s="4"/>
+      <c r="V1" s="4"/>
       <c r="W1" s="0"/>
       <c r="X1" s="0"/>
       <c r="Y1" s="0"/>
@@ -276,16 +288,16 @@
       <c r="A2" s="0"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
-      <c r="I2" s="0"/>
-      <c r="K2" s="2"/>
+      <c r="J2" s="0"/>
       <c r="L2" s="2"/>
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
-      <c r="R2" s="2"/>
+      <c r="P2" s="2"/>
       <c r="S2" s="2"/>
       <c r="T2" s="2"/>
       <c r="U2" s="2"/>
+      <c r="V2" s="2"/>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0"/>
@@ -297,10 +309,10 @@
       <c r="E3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="G3" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H3" s="2" t="s">
@@ -309,46 +321,49 @@
       <c r="I3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="K3" s="2" t="s">
+      <c r="J3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="L3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="L3" s="2" t="s">
+      <c r="M3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="M3" s="2" t="s">
+      <c r="N3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="N3" s="2" t="s">
+      <c r="O3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="O3" s="2" t="s">
-        <v>9</v>
-      </c>
       <c r="P3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="R3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="S3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="S3" s="2" t="s">
-        <v>11</v>
-      </c>
       <c r="T3" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="U3" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
+      </c>
+      <c r="V3" s="2" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0"/>
       <c r="B4" s="0"/>
-      <c r="I4" s="0"/>
+      <c r="J4" s="0"/>
       <c r="N4" s="0"/>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B5" s="5" t="n">
         <v>160</v>
@@ -371,44 +386,47 @@
         <f aca="false">SUM(D5:F5)</f>
         <v>1656</v>
       </c>
-      <c r="I5" s="5" t="n">
-        <f aca="false">SUM(D5:E5)+5*G5</f>
+      <c r="I5" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J5" s="5" t="n">
+        <f aca="false">(SUM(D5:E5)+5*G5)*I5</f>
         <v>3258</v>
       </c>
-      <c r="K5" s="6" t="n">
+      <c r="L5" s="6" t="n">
         <v>981</v>
       </c>
-      <c r="L5" s="6" t="n">
+      <c r="M5" s="6" t="n">
         <v>1373</v>
       </c>
-      <c r="M5" s="6" t="n">
-        <f aca="false">K5+L5</f>
+      <c r="N5" s="6" t="n">
+        <f aca="false">L5+M5</f>
         <v>2354</v>
       </c>
-      <c r="N5" s="6" t="n">
+      <c r="O5" s="6" t="n">
         <v>1571</v>
       </c>
-      <c r="O5" s="6" t="n">
-        <f aca="false">K5+L5+N5</f>
+      <c r="P5" s="6" t="n">
+        <f aca="false">L5+M5+O5</f>
         <v>3925</v>
       </c>
-      <c r="P5" s="5" t="n">
-        <f aca="false">M5+(N5*5)</f>
+      <c r="Q5" s="5" t="n">
+        <f aca="false">N5+(O5*5)</f>
         <v>10209</v>
       </c>
-      <c r="Q5" s="6"/>
-      <c r="R5" s="6" t="n">
-        <f aca="false">T5-S5</f>
+      <c r="R5" s="6"/>
+      <c r="S5" s="6" t="n">
+        <f aca="false">U5-T5</f>
         <v>3488</v>
       </c>
-      <c r="S5" s="6" t="n">
+      <c r="T5" s="6" t="n">
         <v>880</v>
       </c>
-      <c r="T5" s="6" t="n">
+      <c r="U5" s="6" t="n">
         <v>4368</v>
       </c>
-      <c r="U5" s="5" t="n">
-        <f aca="false">R5+(S5*5)</f>
+      <c r="V5" s="5" t="n">
+        <f aca="false">S5+(T5*5)</f>
         <v>7888</v>
       </c>
     </row>
@@ -435,44 +453,47 @@
         <f aca="false">SUM(D6:F6)</f>
         <v>15902</v>
       </c>
-      <c r="I6" s="5" t="n">
-        <f aca="false">SUM(D6:E6)+5*G6</f>
+      <c r="I6" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J6" s="5" t="n">
+        <f aca="false">(SUM(D6:E6)+5*G6)*I6</f>
         <v>32001</v>
       </c>
-      <c r="K6" s="6" t="n">
+      <c r="L6" s="6" t="n">
         <v>15378</v>
       </c>
-      <c r="L6" s="6" t="n">
+      <c r="M6" s="6" t="n">
         <v>23243</v>
       </c>
-      <c r="M6" s="6" t="n">
-        <f aca="false">K6+L6</f>
+      <c r="N6" s="6" t="n">
+        <f aca="false">L6+M6</f>
         <v>38621</v>
       </c>
-      <c r="N6" s="6" t="n">
+      <c r="O6" s="6" t="n">
         <v>22384</v>
       </c>
-      <c r="O6" s="6" t="n">
-        <f aca="false">K6+L6+N6</f>
+      <c r="P6" s="6" t="n">
+        <f aca="false">L6+M6+O6</f>
         <v>61005</v>
       </c>
-      <c r="P6" s="5" t="n">
-        <f aca="false">M6+(N6*5)</f>
+      <c r="Q6" s="5" t="n">
+        <f aca="false">N6+(O6*5)</f>
         <v>150541</v>
       </c>
-      <c r="Q6" s="6"/>
-      <c r="R6" s="6" t="n">
-        <f aca="false">T6-S6</f>
+      <c r="R6" s="6"/>
+      <c r="S6" s="6" t="n">
+        <f aca="false">U6-T6</f>
         <v>26537</v>
       </c>
-      <c r="S6" s="6" t="n">
+      <c r="T6" s="6" t="n">
         <v>6375</v>
       </c>
-      <c r="T6" s="6" t="n">
+      <c r="U6" s="6" t="n">
         <v>32912</v>
       </c>
-      <c r="U6" s="5" t="n">
-        <f aca="false">R6+(S6*5)</f>
+      <c r="V6" s="5" t="n">
+        <f aca="false">S6+(T6*5)</f>
         <v>58412</v>
       </c>
     </row>
@@ -485,22 +506,22 @@
       <c r="F7" s="6"/>
       <c r="G7" s="6"/>
       <c r="H7" s="6"/>
-      <c r="I7" s="5"/>
-      <c r="K7" s="6"/>
+      <c r="J7" s="5"/>
       <c r="L7" s="6"/>
       <c r="M7" s="6"/>
       <c r="N7" s="6"/>
       <c r="O7" s="6"/>
-      <c r="P7" s="5"/>
-      <c r="Q7" s="6"/>
+      <c r="P7" s="6"/>
+      <c r="Q7" s="5"/>
       <c r="R7" s="6"/>
       <c r="S7" s="6"/>
       <c r="T7" s="6"/>
-      <c r="U7" s="5"/>
+      <c r="U7" s="6"/>
+      <c r="V7" s="5"/>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B8" s="5" t="n">
         <v>128</v>
@@ -523,44 +544,47 @@
         <f aca="false">SUM(D8:F8)</f>
         <v>1712</v>
       </c>
-      <c r="I8" s="5" t="n">
-        <f aca="false">SUM(D8:E8)+5*G8</f>
+      <c r="I8" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J8" s="5" t="n">
+        <f aca="false">(SUM(D8:E8)+5*G8)*I8</f>
         <v>2776</v>
       </c>
-      <c r="K8" s="6" t="n">
+      <c r="L8" s="6" t="n">
         <v>255</v>
       </c>
-      <c r="L8" s="6" t="n">
+      <c r="M8" s="6" t="n">
         <v>258</v>
       </c>
-      <c r="M8" s="6" t="n">
-        <f aca="false">K8+L8</f>
+      <c r="N8" s="6" t="n">
+        <f aca="false">L8+M8</f>
         <v>513</v>
       </c>
-      <c r="N8" s="6" t="n">
+      <c r="O8" s="6" t="n">
         <v>382</v>
       </c>
-      <c r="O8" s="6" t="n">
-        <f aca="false">K8+L8+N8</f>
+      <c r="P8" s="6" t="n">
+        <f aca="false">L8+M8+O8</f>
         <v>895</v>
       </c>
-      <c r="P8" s="5" t="n">
-        <f aca="false">M8+(N8*5)</f>
+      <c r="Q8" s="5" t="n">
+        <f aca="false">N8+(O8*5)</f>
         <v>2423</v>
       </c>
-      <c r="Q8" s="6"/>
-      <c r="R8" s="6" t="n">
-        <f aca="false">T8-S8</f>
+      <c r="R8" s="6"/>
+      <c r="S8" s="6" t="n">
+        <f aca="false">U8-T8</f>
         <v>1098</v>
       </c>
-      <c r="S8" s="6" t="n">
+      <c r="T8" s="6" t="n">
         <v>345</v>
       </c>
-      <c r="T8" s="6" t="n">
+      <c r="U8" s="6" t="n">
         <v>1443</v>
       </c>
-      <c r="U8" s="5" t="n">
-        <f aca="false">R8+(S8*5)</f>
+      <c r="V8" s="5" t="n">
+        <f aca="false">S8+(T8*5)</f>
         <v>2823</v>
       </c>
     </row>
@@ -587,44 +611,47 @@
         <f aca="false">SUM(D9:F9)</f>
         <v>3516</v>
       </c>
-      <c r="I9" s="5" t="n">
-        <f aca="false">SUM(D9:E9)+5*G9</f>
+      <c r="I9" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J9" s="5" t="n">
+        <f aca="false">(SUM(D9:E9)+5*G9)*I9</f>
         <v>5598</v>
       </c>
-      <c r="K9" s="6" t="n">
+      <c r="L9" s="6" t="n">
         <v>511</v>
       </c>
-      <c r="L9" s="6" t="n">
+      <c r="M9" s="6" t="n">
         <v>514</v>
       </c>
-      <c r="M9" s="6" t="n">
-        <f aca="false">K9+L9</f>
+      <c r="N9" s="6" t="n">
+        <f aca="false">L9+M9</f>
         <v>1025</v>
       </c>
-      <c r="N9" s="6" t="n">
+      <c r="O9" s="6" t="n">
         <v>766</v>
       </c>
-      <c r="O9" s="6" t="n">
-        <f aca="false">K9+L9+N9</f>
+      <c r="P9" s="6" t="n">
+        <f aca="false">L9+M9+O9</f>
         <v>1791</v>
       </c>
-      <c r="P9" s="5" t="n">
-        <f aca="false">M9+(N9*5)</f>
+      <c r="Q9" s="5" t="n">
+        <f aca="false">N9+(O9*5)</f>
         <v>4855</v>
       </c>
-      <c r="Q9" s="6"/>
-      <c r="R9" s="6" t="n">
-        <f aca="false">T9-S9</f>
+      <c r="R9" s="6"/>
+      <c r="S9" s="6" t="n">
+        <f aca="false">U9-T9</f>
         <v>2230</v>
       </c>
-      <c r="S9" s="6" t="n">
+      <c r="T9" s="6" t="n">
         <v>721</v>
       </c>
-      <c r="T9" s="6" t="n">
+      <c r="U9" s="6" t="n">
         <v>2951</v>
       </c>
-      <c r="U9" s="5" t="n">
-        <f aca="false">R9+(S9*5)</f>
+      <c r="V9" s="5" t="n">
+        <f aca="false">S9+(T9*5)</f>
         <v>5835</v>
       </c>
     </row>
@@ -639,41 +666,41 @@
       <c r="F10" s="6"/>
       <c r="G10" s="6"/>
       <c r="H10" s="6"/>
-      <c r="I10" s="5"/>
-      <c r="K10" s="6" t="n">
+      <c r="J10" s="5"/>
+      <c r="L10" s="6" t="n">
         <v>2047</v>
       </c>
-      <c r="L10" s="6" t="n">
+      <c r="M10" s="6" t="n">
         <v>2050</v>
       </c>
-      <c r="M10" s="6" t="n">
-        <f aca="false">K10+L10</f>
+      <c r="N10" s="6" t="n">
+        <f aca="false">L10+M10</f>
         <v>4097</v>
       </c>
-      <c r="N10" s="6" t="n">
+      <c r="O10" s="6" t="n">
         <v>3070</v>
       </c>
-      <c r="O10" s="6" t="n">
-        <f aca="false">K10+L10+N10</f>
+      <c r="P10" s="6" t="n">
+        <f aca="false">L10+M10+O10</f>
         <v>7167</v>
       </c>
-      <c r="P10" s="5" t="n">
-        <f aca="false">M10+(N10*5)</f>
+      <c r="Q10" s="5" t="n">
+        <f aca="false">N10+(O10*5)</f>
         <v>19447</v>
       </c>
-      <c r="Q10" s="6"/>
-      <c r="R10" s="6" t="n">
-        <f aca="false">T10-S10</f>
+      <c r="R10" s="6"/>
+      <c r="S10" s="6" t="n">
+        <f aca="false">U10-T10</f>
         <v>9022</v>
       </c>
-      <c r="S10" s="6" t="n">
+      <c r="T10" s="6" t="n">
         <v>2977</v>
       </c>
-      <c r="T10" s="6" t="n">
+      <c r="U10" s="6" t="n">
         <v>11999</v>
       </c>
-      <c r="U10" s="5" t="n">
-        <f aca="false">R10+(S10*5)</f>
+      <c r="V10" s="5" t="n">
+        <f aca="false">S10+(T10*5)</f>
         <v>23907</v>
       </c>
     </row>
@@ -686,22 +713,22 @@
       <c r="F11" s="6"/>
       <c r="G11" s="6"/>
       <c r="H11" s="6"/>
-      <c r="I11" s="5"/>
-      <c r="K11" s="6"/>
+      <c r="J11" s="5"/>
       <c r="L11" s="6"/>
       <c r="M11" s="6"/>
       <c r="N11" s="6"/>
       <c r="O11" s="6"/>
-      <c r="P11" s="5"/>
-      <c r="Q11" s="6"/>
+      <c r="P11" s="6"/>
+      <c r="Q11" s="5"/>
       <c r="R11" s="6"/>
       <c r="S11" s="6"/>
       <c r="T11" s="6"/>
-      <c r="U11" s="5"/>
+      <c r="U11" s="6"/>
+      <c r="V11" s="5"/>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B12" s="5" t="n">
         <v>64</v>
@@ -724,44 +751,47 @@
         <f aca="false">SUM(D12:F12)</f>
         <v>30730</v>
       </c>
-      <c r="I12" s="5" t="n">
-        <f aca="false">SUM(D12:E12)+5*G12</f>
+      <c r="I12" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J12" s="5" t="n">
+        <f aca="false">(SUM(D12:E12)+5*G12)*I12</f>
         <v>98330</v>
       </c>
-      <c r="K12" s="6" t="n">
+      <c r="L12" s="6" t="n">
         <v>15503</v>
       </c>
-      <c r="L12" s="6" t="n">
+      <c r="M12" s="6" t="n">
         <v>4348</v>
       </c>
-      <c r="M12" s="6" t="n">
-        <f aca="false">K12+L12</f>
+      <c r="N12" s="6" t="n">
+        <f aca="false">L12+M12</f>
         <v>19851</v>
       </c>
-      <c r="N12" s="6" t="n">
+      <c r="O12" s="6" t="n">
         <v>16064</v>
       </c>
-      <c r="O12" s="6" t="n">
-        <f aca="false">K12+L12+N12</f>
+      <c r="P12" s="6" t="n">
+        <f aca="false">L12+M12+O12</f>
         <v>35915</v>
       </c>
-      <c r="P12" s="5" t="n">
-        <f aca="false">M12+(N12*5)</f>
+      <c r="Q12" s="5" t="n">
+        <f aca="false">N12+(O12*5)</f>
         <v>100171</v>
       </c>
-      <c r="Q12" s="6"/>
-      <c r="R12" s="6" t="n">
-        <f aca="false">T12-S12</f>
+      <c r="R12" s="6"/>
+      <c r="S12" s="6" t="n">
+        <f aca="false">U12-T12</f>
         <v>81114</v>
       </c>
-      <c r="S12" s="6" t="n">
+      <c r="T12" s="6" t="n">
         <v>24766</v>
       </c>
-      <c r="T12" s="6" t="n">
+      <c r="U12" s="6" t="n">
         <v>105880</v>
       </c>
-      <c r="U12" s="5" t="n">
-        <f aca="false">R12+(S12*5)</f>
+      <c r="V12" s="5" t="n">
+        <f aca="false">S12+(T12*5)</f>
         <v>204944</v>
       </c>
     </row>
@@ -788,44 +818,47 @@
         <f aca="false">SUM(D13:F13)</f>
         <v>120760</v>
       </c>
-      <c r="I13" s="5" t="n">
-        <f aca="false">SUM(D13:E13)+5*G13</f>
+      <c r="I13" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J13" s="5" t="n">
+        <f aca="false">(SUM(D13:E13)+5*G13)*I13</f>
         <v>390730</v>
       </c>
-      <c r="K13" s="6" t="n">
+      <c r="L13" s="6" t="n">
         <v>63759</v>
       </c>
-      <c r="L13" s="6" t="n">
+      <c r="M13" s="6" t="n">
         <v>16892</v>
       </c>
-      <c r="M13" s="6" t="n">
-        <f aca="false">K13+L13</f>
+      <c r="N13" s="6" t="n">
+        <f aca="false">L13+M13</f>
         <v>80651</v>
       </c>
-      <c r="N13" s="6" t="n">
+      <c r="O13" s="6" t="n">
         <v>64896</v>
       </c>
-      <c r="O13" s="6" t="n">
-        <f aca="false">K13+L13+N13</f>
+      <c r="P13" s="6" t="n">
+        <f aca="false">L13+M13+O13</f>
         <v>145547</v>
       </c>
-      <c r="P13" s="5" t="n">
-        <f aca="false">M13+(N13*5)</f>
+      <c r="Q13" s="5" t="n">
+        <f aca="false">N13+(O13*5)</f>
         <v>405131</v>
       </c>
-      <c r="Q13" s="6"/>
-      <c r="R13" s="6" t="n">
-        <f aca="false">T13-S13</f>
+      <c r="R13" s="6"/>
+      <c r="S13" s="6" t="n">
+        <f aca="false">U13-T13</f>
         <v>322814</v>
       </c>
-      <c r="S13" s="6" t="n">
+      <c r="T13" s="6" t="n">
         <v>100250</v>
       </c>
-      <c r="T13" s="6" t="n">
+      <c r="U13" s="6" t="n">
         <v>423064</v>
       </c>
-      <c r="U13" s="5" t="n">
-        <f aca="false">R13+(S13*5)</f>
+      <c r="V13" s="5" t="n">
+        <f aca="false">S13+(T13*5)</f>
         <v>824064</v>
       </c>
     </row>
@@ -837,17 +870,16 @@
       <c r="F14" s="6"/>
       <c r="G14" s="6"/>
       <c r="H14" s="6"/>
-      <c r="I14" s="5"/>
-      <c r="M14" s="6"/>
-      <c r="N14" s="0"/>
-      <c r="O14" s="6"/>
-      <c r="P14" s="5"/>
-      <c r="R14" s="6"/>
-      <c r="U14" s="5"/>
+      <c r="J14" s="5"/>
+      <c r="N14" s="6"/>
+      <c r="P14" s="6"/>
+      <c r="Q14" s="5"/>
+      <c r="S14" s="6"/>
+      <c r="V14" s="5"/>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B15" s="1" t="n">
         <v>4</v>
@@ -869,33 +901,36 @@
         <f aca="false">SUM(D15:F15)</f>
         <v>214</v>
       </c>
-      <c r="I15" s="5" t="n">
-        <f aca="false">SUM(D15:E15)+5*G15</f>
+      <c r="I15" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J15" s="5" t="n">
+        <f aca="false">(SUM(D15:E15)+5*G15)*I15</f>
         <v>922</v>
       </c>
-      <c r="K15" s="0" t="n">
+      <c r="L15" s="0" t="n">
         <v>41</v>
       </c>
-      <c r="L15" s="0" t="n">
+      <c r="M15" s="0" t="n">
         <v>111</v>
       </c>
-      <c r="M15" s="6" t="n">
-        <f aca="false">K15+L15</f>
+      <c r="N15" s="6" t="n">
+        <f aca="false">L15+M15</f>
         <v>152</v>
       </c>
-      <c r="N15" s="0" t="n">
+      <c r="O15" s="0" t="n">
         <v>195</v>
       </c>
-      <c r="O15" s="6" t="n">
-        <f aca="false">K15+L15+N15</f>
+      <c r="P15" s="6" t="n">
+        <f aca="false">L15+M15+O15</f>
         <v>347</v>
       </c>
-      <c r="P15" s="5" t="n">
-        <f aca="false">M15+(N15*5)</f>
+      <c r="Q15" s="5" t="n">
+        <f aca="false">N15+(O15*5)</f>
         <v>1127</v>
       </c>
-      <c r="R15" s="6"/>
-      <c r="U15" s="5"/>
+      <c r="S15" s="6"/>
+      <c r="V15" s="5"/>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0"/>
@@ -919,51 +954,54 @@
         <f aca="false">SUM(D16:F16)</f>
         <v>718</v>
       </c>
-      <c r="I16" s="5" t="n">
-        <f aca="false">SUM(D16:E16)+5*G16</f>
+      <c r="I16" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J16" s="5" t="n">
+        <f aca="false">(SUM(D16:E16)+5*G16)*I16</f>
         <v>2469</v>
       </c>
-      <c r="K16" s="0" t="n">
+      <c r="L16" s="0" t="n">
         <v>211</v>
       </c>
-      <c r="L16" s="0" t="n">
+      <c r="M16" s="0" t="n">
         <v>346</v>
       </c>
-      <c r="M16" s="6" t="n">
-        <f aca="false">K16+L16</f>
+      <c r="N16" s="6" t="n">
+        <f aca="false">L16+M16</f>
         <v>557</v>
       </c>
-      <c r="N16" s="0" t="n">
+      <c r="O16" s="0" t="n">
         <v>685</v>
       </c>
-      <c r="O16" s="6" t="n">
-        <f aca="false">K16+L16+N16</f>
+      <c r="P16" s="6" t="n">
+        <f aca="false">L16+M16+O16</f>
         <v>1242</v>
       </c>
-      <c r="P16" s="5" t="n">
-        <f aca="false">M16+(N16*5)</f>
+      <c r="Q16" s="5" t="n">
+        <f aca="false">N16+(O16*5)</f>
         <v>3982</v>
       </c>
-      <c r="R16" s="6"/>
-      <c r="U16" s="5"/>
+      <c r="S16" s="6"/>
+      <c r="V16" s="5"/>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0"/>
       <c r="B17" s="0"/>
       <c r="F17" s="6"/>
       <c r="H17" s="6"/>
-      <c r="I17" s="5"/>
+      <c r="J17" s="5"/>
       <c r="N17" s="0"/>
-      <c r="P17" s="1"/>
-      <c r="R17" s="6"/>
-      <c r="U17" s="5"/>
+      <c r="Q17" s="1"/>
+      <c r="S17" s="6"/>
+      <c r="V17" s="5"/>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D18" s="0" t="n">
         <v>7817</v>
@@ -982,18 +1020,21 @@
         <f aca="false">SUM(D18:F18)</f>
         <v>29852</v>
       </c>
-      <c r="I18" s="5" t="n">
-        <f aca="false">SUM(D18:E18)+5*G18</f>
+      <c r="I18" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J18" s="5" t="n">
+        <f aca="false">(SUM(D18:E18)+5*G18)*I18</f>
         <v>91041</v>
       </c>
       <c r="N18" s="0"/>
-      <c r="P18" s="1"/>
-      <c r="R18" s="6"/>
-      <c r="U18" s="5"/>
+      <c r="Q18" s="1"/>
+      <c r="S18" s="6"/>
+      <c r="V18" s="5"/>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B19" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D19" s="0" t="n">
         <v>26574</v>
@@ -1012,30 +1053,33 @@
         <f aca="false">SUM(D19:F19)</f>
         <v>101574</v>
       </c>
-      <c r="I19" s="5" t="n">
-        <f aca="false">SUM(D19:E19)+5*G19</f>
+      <c r="I19" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J19" s="5" t="n">
+        <f aca="false">(SUM(D19:E19)+5*G19)*I19</f>
         <v>308887</v>
       </c>
       <c r="N19" s="0"/>
-      <c r="P19" s="1"/>
-      <c r="R19" s="6" t="n">
-        <f aca="false">T19-S19</f>
+      <c r="Q19" s="1"/>
+      <c r="S19" s="6" t="n">
+        <f aca="false">U19-T19</f>
         <v>65592</v>
       </c>
-      <c r="S19" s="0" t="n">
+      <c r="T19" s="0" t="n">
         <v>27369</v>
       </c>
-      <c r="T19" s="0" t="n">
+      <c r="U19" s="0" t="n">
         <v>92961</v>
       </c>
-      <c r="U19" s="5" t="n">
-        <f aca="false">R19+(S19*5)</f>
+      <c r="V19" s="5" t="n">
+        <f aca="false">S19+(T19*5)</f>
         <v>202437</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B20" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D20" s="0" t="n">
         <v>123383</v>
@@ -1054,56 +1098,86 @@
         <f aca="false">SUM(D20:F20)</f>
         <v>471298</v>
       </c>
-      <c r="I20" s="5" t="n">
-        <f aca="false">SUM(D20:E20)+5*G20</f>
+      <c r="I20" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J20" s="5" t="n">
+        <f aca="false">(SUM(D20:E20)+5*G20)*I20</f>
         <v>1434234</v>
       </c>
       <c r="N20" s="0"/>
-      <c r="P20" s="1"/>
-      <c r="R20" s="6" t="n">
-        <f aca="false">T20-S20</f>
+      <c r="Q20" s="1"/>
+      <c r="S20" s="6" t="n">
+        <f aca="false">U20-T20</f>
         <v>306250</v>
       </c>
-      <c r="S20" s="0" t="n">
+      <c r="T20" s="0" t="n">
         <v>127225</v>
       </c>
-      <c r="T20" s="0" t="n">
+      <c r="U20" s="0" t="n">
         <v>433475</v>
       </c>
-      <c r="U20" s="5" t="n">
-        <f aca="false">R20+(S20*5)</f>
+      <c r="V20" s="5" t="n">
+        <f aca="false">S20+(T20*5)</f>
         <v>942375</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I21" s="0"/>
+      <c r="F21" s="6"/>
+      <c r="H21" s="6"/>
+      <c r="J21" s="5"/>
       <c r="N21" s="0"/>
-      <c r="P21" s="1"/>
-      <c r="U21" s="1"/>
+      <c r="Q21" s="1"/>
+      <c r="V21" s="1"/>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I22" s="0"/>
+      <c r="F22" s="6"/>
+      <c r="H22" s="6"/>
+      <c r="J22" s="5"/>
       <c r="N22" s="0"/>
-      <c r="P22" s="1"/>
-      <c r="U22" s="1"/>
+      <c r="Q22" s="1"/>
+      <c r="V22" s="1"/>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="I23" s="0"/>
+        <v>21</v>
+      </c>
+      <c r="D23" s="0" t="n">
+        <v>1026</v>
+      </c>
+      <c r="E23" s="0" t="n">
+        <v>1922</v>
+      </c>
+      <c r="F23" s="6" t="n">
+        <f aca="false">SUM(D23:E23)</f>
+        <v>2948</v>
+      </c>
+      <c r="G23" s="0" t="n">
+        <v>4050</v>
+      </c>
+      <c r="H23" s="6" t="n">
+        <f aca="false">SUM(D23:F23)</f>
+        <v>5896</v>
+      </c>
+      <c r="I23" s="0" t="n">
+        <v>27</v>
+      </c>
+      <c r="J23" s="5" t="n">
+        <f aca="false">(SUM(D23:E23)+5*G23)*I23</f>
+        <v>626346</v>
+      </c>
       <c r="N23" s="0"/>
-      <c r="P23" s="1"/>
-      <c r="U23" s="1"/>
+      <c r="Q23" s="1"/>
+      <c r="V23" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="D1:I1"/>
-    <mergeCell ref="K1:P1"/>
-    <mergeCell ref="R1:U1"/>
+    <mergeCell ref="L1:Q1"/>
+    <mergeCell ref="S1:V1"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>

--- a/netlists/results/results.xlsx
+++ b/netlists/results/results.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="24">
   <si>
     <t>Function</t>
   </si>
@@ -218,10 +218,10 @@
     <tabColor rgb="FFFFFFFF"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AH23"/>
+  <dimension ref="A1:AH25"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K23" activeCellId="0" sqref="K23"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="G1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="M12" activeCellId="0" sqref="M12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -661,33 +661,36 @@
         <v>1024</v>
       </c>
       <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6"/>
-      <c r="J10" s="5"/>
-      <c r="L10" s="6" t="n">
+      <c r="D10" s="6" t="n">
         <v>2047</v>
       </c>
-      <c r="M10" s="6" t="n">
+      <c r="E10" s="6" t="n">
         <v>2050</v>
       </c>
-      <c r="N10" s="6" t="n">
-        <f aca="false">L10+M10</f>
+      <c r="F10" s="6" t="n">
+        <f aca="false">SUM(D10:E10)</f>
         <v>4097</v>
       </c>
-      <c r="O10" s="6" t="n">
+      <c r="G10" s="6" t="n">
         <v>3070</v>
       </c>
-      <c r="P10" s="6" t="n">
-        <f aca="false">L10+M10+O10</f>
-        <v>7167</v>
-      </c>
-      <c r="Q10" s="5" t="n">
-        <f aca="false">N10+(O10*5)</f>
+      <c r="H10" s="6" t="n">
+        <f aca="false">SUM(D10:F10)</f>
+        <v>8194</v>
+      </c>
+      <c r="I10" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J10" s="5" t="n">
+        <f aca="false">(SUM(D10:E10)+5*G10)*I10</f>
         <v>19447</v>
       </c>
+      <c r="L10" s="6"/>
+      <c r="M10" s="6"/>
+      <c r="N10" s="6"/>
+      <c r="O10" s="6"/>
+      <c r="P10" s="6"/>
+      <c r="Q10" s="5"/>
       <c r="R10" s="6"/>
       <c r="S10" s="6" t="n">
         <f aca="false">U10-T10</f>
@@ -1033,6 +1036,7 @@
       <c r="V18" s="5"/>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0"/>
       <c r="B19" s="1" t="s">
         <v>21</v>
       </c>
@@ -1078,6 +1082,7 @@
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0"/>
       <c r="B20" s="1" t="s">
         <v>22</v>
       </c>
@@ -1123,6 +1128,8 @@
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0"/>
+      <c r="B21" s="0"/>
       <c r="F21" s="6"/>
       <c r="H21" s="6"/>
       <c r="J21" s="5"/>
@@ -1131,6 +1138,8 @@
       <c r="V21" s="1"/>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0"/>
+      <c r="B22" s="0"/>
       <c r="F22" s="6"/>
       <c r="H22" s="6"/>
       <c r="J22" s="5"/>
@@ -1143,35 +1152,96 @@
         <v>23</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D23" s="0" t="n">
         <v>1026</v>
       </c>
       <c r="E23" s="0" t="n">
-        <v>1922</v>
+        <v>997</v>
       </c>
       <c r="F23" s="6" t="n">
         <f aca="false">SUM(D23:E23)</f>
-        <v>2948</v>
+        <v>2023</v>
       </c>
       <c r="G23" s="0" t="n">
-        <v>4050</v>
+        <v>1956</v>
       </c>
       <c r="H23" s="6" t="n">
         <f aca="false">SUM(D23:F23)</f>
-        <v>5896</v>
+        <v>4046</v>
       </c>
       <c r="I23" s="0" t="n">
-        <v>27</v>
+        <f aca="false">2*2*2</f>
+        <v>8</v>
       </c>
       <c r="J23" s="5" t="n">
         <f aca="false">(SUM(D23:E23)+5*G23)*I23</f>
-        <v>626346</v>
+        <v>94424</v>
       </c>
       <c r="N23" s="0"/>
       <c r="Q23" s="1"/>
       <c r="V23" s="1"/>
+    </row>
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B24" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D24" s="0" t="n">
+        <v>1026</v>
+      </c>
+      <c r="E24" s="0" t="n">
+        <v>997</v>
+      </c>
+      <c r="F24" s="6" t="n">
+        <f aca="false">SUM(D24:E24)</f>
+        <v>2023</v>
+      </c>
+      <c r="G24" s="0" t="n">
+        <v>1956</v>
+      </c>
+      <c r="H24" s="6" t="n">
+        <f aca="false">SUM(D24:F24)</f>
+        <v>4046</v>
+      </c>
+      <c r="I24" s="0" t="n">
+        <f aca="false">3*3*3</f>
+        <v>27</v>
+      </c>
+      <c r="J24" s="5" t="n">
+        <f aca="false">(SUM(D24:E24)+5*G24)*I24</f>
+        <v>318681</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B25" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D25" s="0" t="n">
+        <v>1026</v>
+      </c>
+      <c r="E25" s="0" t="n">
+        <v>997</v>
+      </c>
+      <c r="F25" s="6" t="n">
+        <f aca="false">SUM(D25:E25)</f>
+        <v>2023</v>
+      </c>
+      <c r="G25" s="0" t="n">
+        <v>1956</v>
+      </c>
+      <c r="H25" s="6" t="n">
+        <f aca="false">SUM(D25:F25)</f>
+        <v>4046</v>
+      </c>
+      <c r="I25" s="0" t="n">
+        <f aca="false">5*5*5</f>
+        <v>125</v>
+      </c>
+      <c r="J25" s="5" t="n">
+        <f aca="false">(SUM(D25:E25)+5*G25)*I25</f>
+        <v>1475375</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="3">
